--- a/data/trans_orig/P22_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P22_R-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10880</v>
+        <v>9728</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004615006151940491</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0186512951662854</v>
+        <v>0.01667652596964992</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4692</v>
+        <v>5548</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001009313936894822</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005087201760406869</v>
+        <v>0.00601519452440687</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -786,19 +786,19 @@
         <v>3623</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9221</v>
+        <v>10434</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00240623484432148</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0006142320434599848</v>
+        <v>0.0006160919025805759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006124070586718852</v>
+        <v>0.006929836407876903</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>12622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6544</v>
+        <v>6988</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22482</v>
+        <v>23342</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02163784838238105</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0112184929197552</v>
+        <v>0.01197918074320008</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03854133583505748</v>
+        <v>0.04001586954369283</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -836,19 +836,19 @@
         <v>24376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15723</v>
+        <v>15809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36478</v>
+        <v>36023</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02642846173360949</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01704648293288234</v>
+        <v>0.0171405397308063</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03955004456051058</v>
+        <v>0.03905688265386824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -857,19 +857,19 @@
         <v>36998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27022</v>
+        <v>26515</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51108</v>
+        <v>51794</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02457247748686658</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01794677546538666</v>
+        <v>0.01761033087221376</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03394394486896046</v>
+        <v>0.03439943177403215</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>8772</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4169</v>
+        <v>4191</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17064</v>
+        <v>19497</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01503790385287481</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007146587652022967</v>
+        <v>0.007185391521248924</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02925265403082996</v>
+        <v>0.03342417448880491</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -907,19 +907,19 @@
         <v>16631</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9640</v>
+        <v>10230</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26474</v>
+        <v>27262</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01803156753245965</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01045210600927325</v>
+        <v>0.01109108650014246</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02870310839366558</v>
+        <v>0.02955792146195181</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -928,19 +928,19 @@
         <v>25403</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16975</v>
+        <v>17657</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37576</v>
+        <v>38760</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01687175933630642</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01127406726571194</v>
+        <v>0.01172721386999411</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02495652776705441</v>
+        <v>0.0257426679961962</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>559237</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>547391</v>
+        <v>547086</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>568329</v>
+        <v>567875</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9587092416128037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9384007368716379</v>
+        <v>0.9378781851990431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.974294979512791</v>
+        <v>0.9735164651819638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>845</v>
@@ -978,19 +978,19 @@
         <v>880395</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>865703</v>
+        <v>865080</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>891874</v>
+        <v>891167</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9545306567970361</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9386011623601167</v>
+        <v>0.9379259738114777</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9669763262505525</v>
+        <v>0.9662092293707866</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1396</v>
@@ -999,19 +999,19 @@
         <v>1439632</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1422051</v>
+        <v>1420650</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1455038</v>
+        <v>1453425</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9561495283325055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9444729269243947</v>
+        <v>0.9435425300913909</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9663815860745854</v>
+        <v>0.9653103527187537</v>
       </c>
     </row>
     <row r="8">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11851</v>
+        <v>10484</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003164613707844224</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01100610437953149</v>
+        <v>0.009736970602356286</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10447</v>
+        <v>11905</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001597440707529495</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.00489743576986922</v>
+        <v>0.005580847876476624</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>54163</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40562</v>
+        <v>40330</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69717</v>
+        <v>68591</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05030210931508882</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03767055948553618</v>
+        <v>0.03745499078969769</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06474742262380588</v>
+        <v>0.06370138409724789</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1187,19 +1187,19 @@
         <v>32770</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22759</v>
+        <v>23021</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45628</v>
+        <v>45833</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03102135860939701</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02154467260062883</v>
+        <v>0.02179261926663779</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04319358071265256</v>
+        <v>0.04338782820327645</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -1208,19 +1208,19 @@
         <v>86933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70325</v>
+        <v>69614</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106714</v>
+        <v>107938</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04075393859938303</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03296818616190619</v>
+        <v>0.03263480896228137</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05002715223383948</v>
+        <v>0.050600926261524</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>16339</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9278</v>
+        <v>10202</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26425</v>
+        <v>28518</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01517434625642262</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008616278837624142</v>
+        <v>0.009474936002566913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02454114268373838</v>
+        <v>0.02648548451258643</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -1258,19 +1258,19 @@
         <v>42436</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30172</v>
+        <v>30415</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57590</v>
+        <v>56757</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04017164974716252</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02856195452733623</v>
+        <v>0.02879219806542278</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05451729316504705</v>
+        <v>0.05372943597695525</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>56</v>
@@ -1279,19 +1279,19 @@
         <v>58775</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45067</v>
+        <v>44205</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>74253</v>
+        <v>75257</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02755345559740038</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02112735239387233</v>
+        <v>0.02072313021916058</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03480959151309103</v>
+        <v>0.03528014067919429</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>1002849</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>985824</v>
+        <v>985790</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1017647</v>
+        <v>1019475</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9313589307206444</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9155479541171045</v>
+        <v>0.9155156183075007</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9451020262730219</v>
+        <v>0.9467997660893693</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>955</v>
@@ -1329,19 +1329,19 @@
         <v>981152</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>963600</v>
+        <v>964539</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>996566</v>
+        <v>997185</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9288069916434405</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9121919063911552</v>
+        <v>0.913080811918954</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9433986758105307</v>
+        <v>0.9439850829364625</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1936</v>
@@ -1350,19 +1350,19 @@
         <v>1984002</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1958924</v>
+        <v>1956887</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2005911</v>
+        <v>2008067</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9300951650956871</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.918338782892415</v>
+        <v>0.9173837157065248</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.940365943374203</v>
+        <v>0.9413768043888681</v>
       </c>
     </row>
     <row r="13">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5295</v>
+        <v>7313</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00106730423104502</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.005332069824292987</v>
+        <v>0.007363937268178086</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5442</v>
+        <v>5328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0005019245519397457</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0025771352889266</v>
+        <v>0.002523209993082327</v>
       </c>
     </row>
     <row r="15">
@@ -1517,19 +1517,19 @@
         <v>81615</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>66177</v>
+        <v>64820</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>102088</v>
+        <v>101672</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07295897588992588</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05915789126649888</v>
+        <v>0.05794543633684616</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09126014326203626</v>
+        <v>0.09088830541681783</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>55</v>
@@ -1538,19 +1538,19 @@
         <v>56302</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>41471</v>
+        <v>42814</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>72503</v>
+        <v>72445</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05669346559828106</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04175985238827142</v>
+        <v>0.04311179053224157</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07300757423627455</v>
+        <v>0.07294930349703349</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>132</v>
@@ -1559,19 +1559,19 @@
         <v>137917</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>115915</v>
+        <v>116985</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>161888</v>
+        <v>162825</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06530974268374666</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05489065382044563</v>
+        <v>0.05539761092656258</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07666105459187678</v>
+        <v>0.0771050499937576</v>
       </c>
     </row>
     <row r="16">
@@ -1588,19 +1588,19 @@
         <v>62278</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48928</v>
+        <v>47986</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77714</v>
+        <v>77964</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05567323631655108</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04373854755550725</v>
+        <v>0.0428964868421654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06947176296380601</v>
+        <v>0.06969518031812333</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1609,19 +1609,19 @@
         <v>52027</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38024</v>
+        <v>37651</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68254</v>
+        <v>67747</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05238880486518999</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03828855956619883</v>
+        <v>0.03791270906149292</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06872913341508656</v>
+        <v>0.06821811945275365</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>111</v>
@@ -1630,19 +1630,19 @@
         <v>114305</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95756</v>
+        <v>96548</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136781</v>
+        <v>137482</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05412865630210936</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04534448431387673</v>
+        <v>0.04571982013711382</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06477202615897228</v>
+        <v>0.06510386230985099</v>
       </c>
     </row>
     <row r="17">
@@ -1659,19 +1659,19 @@
         <v>974749</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>950084</v>
+        <v>952713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>995083</v>
+        <v>997824</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8713677877935231</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8493182248769208</v>
+        <v>0.8516684099808497</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8895450191033333</v>
+        <v>0.8919947271094393</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>877</v>
@@ -1680,19 +1680,19 @@
         <v>883703</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>861845</v>
+        <v>860486</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>900942</v>
+        <v>902342</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.889850425305484</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8678400235030598</v>
+        <v>0.8664720036019702</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9072094508446668</v>
+        <v>0.9086186689364212</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1837</v>
@@ -1701,19 +1701,19 @@
         <v>1858453</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1827930</v>
+        <v>1825675</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1887090</v>
+        <v>1885572</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8800596764622043</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8656057627602645</v>
+        <v>0.8645379887487611</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8936204598670168</v>
+        <v>0.8929018217527782</v>
       </c>
     </row>
     <row r="18">
@@ -1852,19 +1852,19 @@
         <v>66326</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>51923</v>
+        <v>52849</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84225</v>
+        <v>83845</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1488151414404721</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1164993094956278</v>
+        <v>0.1185765377977864</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1889739978640009</v>
+        <v>0.1881207948218397</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -1873,19 +1873,19 @@
         <v>58038</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44670</v>
+        <v>45149</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74254</v>
+        <v>73292</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1701203913380972</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1309362195037156</v>
+        <v>0.1323395700947739</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2176528147062471</v>
+        <v>0.2148326353964681</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>120</v>
@@ -1894,19 +1894,19 @@
         <v>124364</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105827</v>
+        <v>104639</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146802</v>
+        <v>146295</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1580525081742316</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.134493409312441</v>
+        <v>0.1329844063400231</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1865685545096296</v>
+        <v>0.1859243262268095</v>
       </c>
     </row>
     <row r="21">
@@ -1923,19 +1923,19 @@
         <v>42311</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30476</v>
+        <v>31221</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>56502</v>
+        <v>56136</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09493270196017589</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06837906311639919</v>
+        <v>0.07004962395628352</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.126771838022154</v>
+        <v>0.1259518187160032</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>34</v>
@@ -1944,19 +1944,19 @@
         <v>34091</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23899</v>
+        <v>24992</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47049</v>
+        <v>46365</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09992605049143932</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07005401956399898</v>
+        <v>0.07325516548616527</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1379082999814391</v>
+        <v>0.1359061525662463</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>75</v>
@@ -1965,19 +1965,19 @@
         <v>76402</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>60697</v>
+        <v>61498</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>94881</v>
+        <v>97609</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09709767969263146</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0771387263300206</v>
+        <v>0.07815713503673982</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1205825445727454</v>
+        <v>0.124050265889823</v>
       </c>
     </row>
     <row r="22">
@@ -1994,19 +1994,19 @@
         <v>337059</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>318189</v>
+        <v>318192</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>354628</v>
+        <v>354616</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.756252156599352</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7139143370796629</v>
+        <v>0.7139206284510354</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7956712810738126</v>
+        <v>0.7956462722919044</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>249</v>
@@ -2015,19 +2015,19 @@
         <v>249029</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>232331</v>
+        <v>230049</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>265083</v>
+        <v>264232</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7299535581704635</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6810071525135828</v>
+        <v>0.6743185570355721</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7770108919993882</v>
+        <v>0.7745153244115818</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>579</v>
@@ -2036,19 +2036,19 @@
         <v>586088</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>562001</v>
+        <v>557594</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>609946</v>
+        <v>609160</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7448498121331369</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.714237681335172</v>
+        <v>0.7086376262556133</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7751708186909848</v>
+        <v>0.7741711212562049</v>
       </c>
     </row>
     <row r="23">
@@ -2140,19 +2140,19 @@
         <v>6100</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15046</v>
+        <v>16351</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001891677941618741</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0005136117504310352</v>
+        <v>0.0005109411299794615</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.004666407511614596</v>
+        <v>0.005070952787605107</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6747</v>
+        <v>7949</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0006009329344163322</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.00203658166498052</v>
+        <v>0.00239927680548741</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2182,19 +2182,19 @@
         <v>8090</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2731</v>
+        <v>2810</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16171</v>
+        <v>17171</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001237566658383043</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0004177770462412804</v>
+        <v>0.0004299087282369799</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002473642187683411</v>
+        <v>0.002626519463362377</v>
       </c>
     </row>
     <row r="25">
@@ -2211,19 +2211,19 @@
         <v>214726</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>187106</v>
+        <v>186724</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>243971</v>
+        <v>243704</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06659380317334701</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05802790137802748</v>
+        <v>0.05790922159531856</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07566335168816597</v>
+        <v>0.0755808104883525</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>166</v>
@@ -2232,19 +2232,19 @@
         <v>171485</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>146024</v>
+        <v>147327</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>198823</v>
+        <v>198346</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05176225138514309</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04407689883937564</v>
+        <v>0.04447017701398406</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06001397978815216</v>
+        <v>0.05986997300121064</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>374</v>
@@ -2253,19 +2253,19 @@
         <v>386212</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>352748</v>
+        <v>347831</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>424731</v>
+        <v>424586</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05907761266443619</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05395876465722449</v>
+        <v>0.05320660696698713</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06496978181340368</v>
+        <v>0.06494764297922015</v>
       </c>
     </row>
     <row r="26">
@@ -2282,19 +2282,19 @@
         <v>129701</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>108788</v>
+        <v>109635</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>156333</v>
+        <v>154703</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04022447903569039</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03373887238433466</v>
+        <v>0.03400131432165637</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04848418237554249</v>
+        <v>0.04797853043292512</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>138</v>
@@ -2303,19 +2303,19 @@
         <v>145184</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>123710</v>
+        <v>123724</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>171454</v>
+        <v>172020</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0438233688634397</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03734129563777631</v>
+        <v>0.0373457315947784</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05175283994460064</v>
+        <v>0.05192359969387195</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>266</v>
@@ -2324,19 +2324,19 @@
         <v>274885</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>244425</v>
+        <v>243112</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>307215</v>
+        <v>310096</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0420482896491866</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03738898249964973</v>
+        <v>0.03718814071328195</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04699371242755969</v>
+        <v>0.04743443109421654</v>
       </c>
     </row>
     <row r="27">
@@ -2353,19 +2353,19 @@
         <v>2873894</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2837731</v>
+        <v>2838958</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2909926</v>
+        <v>2910766</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8912900398493439</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8800745593352529</v>
+        <v>0.8804550409572985</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9024645250168323</v>
+        <v>0.9027251148579953</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2926</v>
@@ -2374,19 +2374,19 @@
         <v>2994281</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2960536</v>
+        <v>2958463</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3028716</v>
+        <v>3026758</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9038134468170009</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8936277156032491</v>
+        <v>0.8930019487505354</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9142076665093222</v>
+        <v>0.9136167548781885</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5748</v>
@@ -2395,19 +2395,19 @@
         <v>5868174</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5821318</v>
+        <v>5818565</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5915998</v>
+        <v>5917299</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8976365310279941</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8904691444461439</v>
+        <v>0.8900480082304785</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9049519433892742</v>
+        <v>0.9051510641303155</v>
       </c>
     </row>
     <row r="28">
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6349</v>
+        <v>6363</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001214802556132706</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006081908632661483</v>
+        <v>0.006095232275058753</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6026</v>
+        <v>7169</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001067556471144155</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005380735102328058</v>
+        <v>0.00640132396472065</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8557</v>
+        <v>8668</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001138593917129547</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003954386497229448</v>
+        <v>0.004005570639234446</v>
       </c>
     </row>
     <row r="5">
@@ -2810,19 +2810,19 @@
         <v>32763</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22354</v>
+        <v>23109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48471</v>
+        <v>49355</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03138389160595066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02141320293988296</v>
+        <v>0.02213647554900024</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0464305790543386</v>
+        <v>0.04727739769247152</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -2831,19 +2831,19 @@
         <v>22894</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14298</v>
+        <v>14524</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33539</v>
+        <v>33454</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02044235839644704</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01276648373998182</v>
+        <v>0.01296855894148285</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02994747349284369</v>
+        <v>0.02987136123283981</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -2852,19 +2852,19 @@
         <v>55657</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41282</v>
+        <v>41502</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72290</v>
+        <v>73392</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02572099500283235</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01907775862611191</v>
+        <v>0.01917978208795378</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03340772847816174</v>
+        <v>0.03391719263956865</v>
       </c>
     </row>
     <row r="6">
@@ -2881,19 +2881,19 @@
         <v>16031</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9116</v>
+        <v>8822</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25957</v>
+        <v>27908</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01535670774721601</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008732447133574715</v>
+        <v>0.00845115929776279</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02486472522172633</v>
+        <v>0.02673343089416344</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -2902,19 +2902,19 @@
         <v>17858</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10260</v>
+        <v>9910</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29240</v>
+        <v>30571</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01594547713065991</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009161245441581702</v>
+        <v>0.008848767950788133</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02610892525399099</v>
+        <v>0.02729737734066645</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -2923,19 +2923,19 @@
         <v>33889</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22061</v>
+        <v>22833</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48726</v>
+        <v>48706</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01566143105040249</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01019498513781137</v>
+        <v>0.01055175104580767</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0225181020680491</v>
+        <v>0.0225087394273921</v>
       </c>
     </row>
     <row r="7">
@@ -2952,19 +2952,19 @@
         <v>993873</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>977435</v>
+        <v>974117</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1006550</v>
+        <v>1006975</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9520445980907006</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9362989992461017</v>
+        <v>0.9331199499804091</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9641887290987364</v>
+        <v>0.9645955765114282</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>993</v>
@@ -2973,19 +2973,19 @@
         <v>1077981</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1063653</v>
+        <v>1063610</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1089810</v>
+        <v>1090272</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9625446080017489</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9497509488147863</v>
+        <v>0.9497125979432923</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9731073928588003</v>
+        <v>0.9735196521117271</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1927</v>
@@ -2994,19 +2994,19 @@
         <v>2071853</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2050935</v>
+        <v>2050993</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2090688</v>
+        <v>2091035</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9574789800296356</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9478118479625627</v>
+        <v>0.9478387704983144</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9661832499890186</v>
+        <v>0.966343366939616</v>
       </c>
     </row>
     <row r="8">
@@ -3145,19 +3145,19 @@
         <v>34888</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24437</v>
+        <v>24608</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47640</v>
+        <v>48148</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03574237440582322</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0250358911263091</v>
+        <v>0.02521088658766794</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04880683348391095</v>
+        <v>0.0493274780517322</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -3166,19 +3166,19 @@
         <v>41034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29764</v>
+        <v>28771</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56077</v>
+        <v>54794</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03749905573525582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02719974742094635</v>
+        <v>0.02629248718878378</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05124672590873963</v>
+        <v>0.05007352268272161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -3187,19 +3187,19 @@
         <v>75922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59309</v>
+        <v>60202</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>95775</v>
+        <v>95225</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03667084859068218</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02864660705310484</v>
+        <v>0.02907797891688954</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04626021648845046</v>
+        <v>0.04599476308652874</v>
       </c>
     </row>
     <row r="11">
@@ -3216,19 +3216,19 @@
         <v>25885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16829</v>
+        <v>17182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38934</v>
+        <v>39058</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0265193236002987</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01724110988718569</v>
+        <v>0.01760267115151841</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03988714822515454</v>
+        <v>0.04001442841731276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -3237,19 +3237,19 @@
         <v>33826</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23359</v>
+        <v>22885</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48938</v>
+        <v>48099</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0309118507904887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02134638064084323</v>
+        <v>0.02091338569862271</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04472215800545822</v>
+        <v>0.0439552793001558</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -3258,19 +3258,19 @@
         <v>59711</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>44634</v>
+        <v>44808</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78383</v>
+        <v>78195</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.028840944507888</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02155870495364958</v>
+        <v>0.02164268335792061</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03785953864897162</v>
+        <v>0.03776867802015161</v>
       </c>
     </row>
     <row r="12">
@@ -3287,19 +3287,19 @@
         <v>915319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>898729</v>
+        <v>898486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>929243</v>
+        <v>929240</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9377383019938781</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9207424454108429</v>
+        <v>0.9204933261663987</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9520032390304579</v>
+        <v>0.9520007778479032</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>954</v>
@@ -3308,19 +3308,19 @@
         <v>1019403</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>999920</v>
+        <v>1001414</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1035732</v>
+        <v>1035378</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9315890934742554</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9137847729345672</v>
+        <v>0.9151498991822776</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9465120272316846</v>
+        <v>0.9461881528906934</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1818</v>
@@ -3329,19 +3329,19 @@
         <v>1934721</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1907782</v>
+        <v>1909975</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1955996</v>
+        <v>1959021</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9344882069014299</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9214761843274213</v>
+        <v>0.9225354335924597</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.944764163940517</v>
+        <v>0.9462249790712892</v>
       </c>
     </row>
     <row r="13">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8148</v>
+        <v>7434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00276080615357306</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009205639781833665</v>
+        <v>0.008399173418875172</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9742</v>
+        <v>8594</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001387708628978538</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005532136372418415</v>
+        <v>0.004880222370014942</v>
       </c>
     </row>
     <row r="15">
@@ -3496,19 +3496,19 @@
         <v>49058</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>37423</v>
+        <v>36512</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>66211</v>
+        <v>65786</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05542590306790714</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04227997137757947</v>
+        <v>0.04125131279070979</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07480476226705078</v>
+        <v>0.0743244202804398</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>46</v>
@@ -3517,19 +3517,19 @@
         <v>50219</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>38429</v>
+        <v>36918</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>66918</v>
+        <v>65020</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05734115447784521</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0438794607743521</v>
+        <v>0.04215401193782584</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07640810142104086</v>
+        <v>0.07424158585223724</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>92</v>
@@ -3538,19 +3538,19 @@
         <v>99277</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>80416</v>
+        <v>81202</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>121232</v>
+        <v>120967</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05637846069914778</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04566733945600359</v>
+        <v>0.04611366289685308</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06884642638347135</v>
+        <v>0.06869570151138997</v>
       </c>
     </row>
     <row r="16">
@@ -3567,19 +3567,19 @@
         <v>59056</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44762</v>
+        <v>44437</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77553</v>
+        <v>76756</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06672132242333231</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05057142864594684</v>
+        <v>0.05020445084156124</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08761892046277901</v>
+        <v>0.08671835788243867</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -3588,19 +3588,19 @@
         <v>31919</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22500</v>
+        <v>21803</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45850</v>
+        <v>44255</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03644551684153754</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02569142898698777</v>
+        <v>0.02489559806062883</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05235235432354596</v>
+        <v>0.05053150199181968</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -3609,19 +3609,19 @@
         <v>90975</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>73801</v>
+        <v>73070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>114009</v>
+        <v>114154</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05166353444873473</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04191095427139978</v>
+        <v>0.0414958349530623</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06474415750491509</v>
+        <v>0.06482651049259956</v>
       </c>
     </row>
     <row r="17">
@@ -3638,19 +3638,19 @@
         <v>774557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>752929</v>
+        <v>752563</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>792865</v>
+        <v>794485</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8750919683551875</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8506571334089312</v>
+        <v>0.8502430127943154</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8957767046756663</v>
+        <v>0.8976063037827553</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>746</v>
@@ -3659,19 +3659,19 @@
         <v>793658</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>775209</v>
+        <v>774699</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>809706</v>
+        <v>809589</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9062133286806172</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8851484100113136</v>
+        <v>0.8845654888985498</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.92453716353751</v>
+        <v>0.9244037256769962</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1476</v>
@@ -3680,19 +3680,19 @@
         <v>1568215</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1536636</v>
+        <v>1537029</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1591464</v>
+        <v>1593760</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.890570296223139</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8726369614590908</v>
+        <v>0.8728599648587498</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9037732379959662</v>
+        <v>0.905077028613315</v>
       </c>
     </row>
     <row r="18">
@@ -3831,19 +3831,19 @@
         <v>40006</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27539</v>
+        <v>29245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55450</v>
+        <v>55930</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07953118658555222</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05474732102151302</v>
+        <v>0.05813880662579085</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.11023255090641</v>
+        <v>0.1111879804774385</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -3852,19 +3852,19 @@
         <v>34315</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23655</v>
+        <v>24485</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47971</v>
+        <v>48742</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07579522879614527</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0522488168167642</v>
+        <v>0.05408141851183412</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1059576023112838</v>
+        <v>0.1076601547182911</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>67</v>
@@ -3873,19 +3873,19 @@
         <v>74321</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>59118</v>
+        <v>58559</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94931</v>
+        <v>93410</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07776149112259394</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06185410004982532</v>
+        <v>0.06126941920351416</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09932540545887629</v>
+        <v>0.0977335706775905</v>
       </c>
     </row>
     <row r="21">
@@ -3902,19 +3902,19 @@
         <v>54865</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>39532</v>
+        <v>40330</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71438</v>
+        <v>72485</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1090715247453607</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07858913698388054</v>
+        <v>0.08017489166461841</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1420169477996897</v>
+        <v>0.1440993007892411</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -3923,19 +3923,19 @@
         <v>38896</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>27415</v>
+        <v>27731</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>53811</v>
+        <v>54272</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08591385057610891</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06055360455049784</v>
+        <v>0.06125121070532938</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1188565052726959</v>
+        <v>0.1198760857839155</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>74</v>
@@ -3944,19 +3944,19 @@
         <v>93762</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>75067</v>
+        <v>73604</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>116894</v>
+        <v>115573</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09810190645197611</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07854235249580099</v>
+        <v>0.07701133117404074</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1223054101458078</v>
+        <v>0.1209224469319125</v>
       </c>
     </row>
     <row r="22">
@@ -3973,19 +3973,19 @@
         <v>408151</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>387408</v>
+        <v>387986</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>427921</v>
+        <v>424270</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8113972886690871</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.770159438291529</v>
+        <v>0.7713096432345309</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.850699390139607</v>
+        <v>0.8434400707740135</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>349</v>
@@ -3994,19 +3994,19 @@
         <v>379524</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>360571</v>
+        <v>360206</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>394733</v>
+        <v>395877</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8382909206277458</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7964272592040609</v>
+        <v>0.7956196170929397</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8718843105746317</v>
+        <v>0.8744099886943096</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>732</v>
@@ -4015,19 +4015,19 @@
         <v>787675</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>761784</v>
+        <v>762813</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>811625</v>
+        <v>814566</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.82413660242543</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7970470300950551</v>
+        <v>0.7981237072097582</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8491949122231275</v>
+        <v>0.8522723463677983</v>
       </c>
     </row>
     <row r="23">
@@ -4119,19 +4119,19 @@
         <v>3712</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10022</v>
+        <v>9914</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.00108909247923989</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0003537989725087428</v>
+        <v>0.0003554038700247437</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.002940586664078107</v>
+        <v>0.002908892917754981</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5990</v>
+        <v>5986</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0003374768658077597</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.001690696206079132</v>
+        <v>0.001689726618711919</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -4161,19 +4161,19 @@
         <v>4907</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1265</v>
+        <v>1212</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12202</v>
+        <v>12247</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0007060096440673456</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0001819721665467755</v>
+        <v>0.0001743849299972065</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001755480914630513</v>
+        <v>0.001761913267959267</v>
       </c>
     </row>
     <row r="25">
@@ -4190,19 +4190,19 @@
         <v>156715</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>132920</v>
+        <v>133547</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>186633</v>
+        <v>183621</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04598219215140174</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03900060511112921</v>
+        <v>0.03918442603630085</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05476057727547617</v>
+        <v>0.05387668277206725</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>137</v>
@@ -4211,19 +4211,19 @@
         <v>148462</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>122585</v>
+        <v>125037</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>174008</v>
+        <v>175392</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04190622819465921</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03460182162515123</v>
+        <v>0.03529415883654792</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04911704380955063</v>
+        <v>0.04950776096022846</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>283</v>
@@ -4232,19 +4232,19 @@
         <v>305177</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>271504</v>
+        <v>270778</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>342934</v>
+        <v>340341</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04390475815361661</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03906034969117105</v>
+        <v>0.03895585883842313</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04933669321755191</v>
+        <v>0.04896363821113643</v>
       </c>
     </row>
     <row r="26">
@@ -4261,19 +4261,19 @@
         <v>155838</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>132018</v>
+        <v>131592</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>185984</v>
+        <v>186329</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04572496487943302</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03873587149809752</v>
+        <v>0.03861089190101035</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05457022790215176</v>
+        <v>0.05467126417213115</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>104</v>
@@ -4282,19 +4282,19 @@
         <v>122499</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>99585</v>
+        <v>102870</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>147741</v>
+        <v>149296</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03457752236696084</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02810966123167201</v>
+        <v>0.02903685936537942</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04170258402236036</v>
+        <v>0.04214151489726721</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>236</v>
@@ -4303,19 +4303,19 @@
         <v>278337</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>241127</v>
+        <v>245450</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>319247</v>
+        <v>318747</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04004334543688214</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03469011959362939</v>
+        <v>0.0353121053295397</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04592895321650714</v>
+        <v>0.04585709026432324</v>
       </c>
     </row>
     <row r="27">
@@ -4332,19 +4332,19 @@
         <v>3091899</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3054898</v>
+        <v>3056077</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3131313</v>
+        <v>3128387</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9072037504899253</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8963470496339184</v>
+        <v>0.8966930365324186</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9187681525724625</v>
+        <v>0.9179097413957815</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3042</v>
@@ -4353,19 +4353,19 @@
         <v>3270566</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3234687</v>
+        <v>3232676</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3304427</v>
+        <v>3301764</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9231787725725722</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9130513245594245</v>
+        <v>0.9124836702080489</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9327368500170727</v>
+        <v>0.9319851634599308</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5953</v>
@@ -4374,19 +4374,19 @@
         <v>6362465</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6303793</v>
+        <v>6313674</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6409998</v>
+        <v>6409644</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9153458867654339</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9069049195662408</v>
+        <v>0.9083264878434809</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9221842901365577</v>
+        <v>0.9221334377979646</v>
       </c>
     </row>
     <row r="28">
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9626</v>
+        <v>10015</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002421644204488452</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008541127469557565</v>
+        <v>0.008885986388857466</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8152</v>
+        <v>10052</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001145777557290284</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003422124641730593</v>
+        <v>0.004220028446579732</v>
       </c>
     </row>
     <row r="5">
@@ -4781,19 +4781,19 @@
         <v>9838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4960</v>
+        <v>4851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18491</v>
+        <v>19109</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008728674286290133</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004401082702515255</v>
+        <v>0.004304492888328564</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01640640006890709</v>
+        <v>0.0169550635503675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -4802,19 +4802,19 @@
         <v>22069</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13986</v>
+        <v>14116</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31768</v>
+        <v>33228</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01758479240255016</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01114377675349576</v>
+        <v>0.01124755840158237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02531295615876009</v>
+        <v>0.026475527722485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -4823,19 +4823,19 @@
         <v>31907</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22035</v>
+        <v>22027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44545</v>
+        <v>45596</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01339460568415644</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009250246844078845</v>
+        <v>0.009246836086912206</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01870004840178583</v>
+        <v>0.01914131174484106</v>
       </c>
     </row>
     <row r="6">
@@ -4852,19 +4852,19 @@
         <v>14003</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7523</v>
+        <v>7386</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24247</v>
+        <v>25198</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01242456548133183</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006675019372837878</v>
+        <v>0.006552957710526218</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02151381016208858</v>
+        <v>0.0223574992313334</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -4873,19 +4873,19 @@
         <v>8997</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3642</v>
+        <v>3961</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16872</v>
+        <v>18168</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007168597416367163</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002901979193704906</v>
+        <v>0.003155994312591959</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01344371575255796</v>
+        <v>0.01447621086970585</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -4894,19 +4894,19 @@
         <v>23000</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14082</v>
+        <v>14847</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34541</v>
+        <v>35430</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.009655407922844139</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005911709311789349</v>
+        <v>0.006232634928017815</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01450043094157026</v>
+        <v>0.01487346710794284</v>
       </c>
     </row>
     <row r="7">
@@ -4923,19 +4923,19 @@
         <v>1100493</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1088595</v>
+        <v>1087006</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1109731</v>
+        <v>1109381</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9764251160278896</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9658688691650613</v>
+        <v>0.9644589319748776</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9846221610313108</v>
+        <v>0.9843116475041638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1154</v>
@@ -4944,19 +4944,19 @@
         <v>1223961</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1211936</v>
+        <v>1210063</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1234132</v>
+        <v>1233990</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9752466101810827</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9656649099873131</v>
+        <v>0.9641731268087298</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9833511632989463</v>
+        <v>0.9832375444593303</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2196</v>
@@ -4965,19 +4965,19 @@
         <v>2324453</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2308130</v>
+        <v>2308478</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2338678</v>
+        <v>2338688</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9758042088357092</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9689517671831671</v>
+        <v>0.9690978586721859</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9817755208315767</v>
+        <v>0.9817800488947075</v>
       </c>
     </row>
     <row r="8">
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9951</v>
+        <v>10730</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003296329049491691</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01099790696168767</v>
+        <v>0.01185889369441496</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10870</v>
+        <v>9649</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001561566727484262</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005691046774018706</v>
+        <v>0.005051775643340744</v>
       </c>
     </row>
     <row r="10">
@@ -5132,19 +5132,19 @@
         <v>24378</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16073</v>
+        <v>16136</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36777</v>
+        <v>35533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02694147432531193</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01776377726642843</v>
+        <v>0.01783239049443879</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04064397990672304</v>
+        <v>0.03927004302887744</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -5153,19 +5153,19 @@
         <v>39411</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28504</v>
+        <v>27945</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53323</v>
+        <v>55354</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0392070876440475</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0283566236072319</v>
+        <v>0.02780025423640772</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05304728615959854</v>
+        <v>0.05506714771595077</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -5174,19 +5174,19 @@
         <v>63789</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49233</v>
+        <v>48593</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82484</v>
+        <v>80667</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03339651067701842</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02577588457039087</v>
+        <v>0.02544063822445796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04318400775476888</v>
+        <v>0.04223316369921425</v>
       </c>
     </row>
     <row r="11">
@@ -5203,19 +5203,19 @@
         <v>29790</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20137</v>
+        <v>20506</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41538</v>
+        <v>42436</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0329227404895388</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02225452872109417</v>
+        <v>0.02266261348312638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04590560606493849</v>
+        <v>0.04689852779590627</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -5224,19 +5224,19 @@
         <v>32582</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22366</v>
+        <v>23138</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44992</v>
+        <v>46405</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03241321850013307</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02224983538964666</v>
+        <v>0.0230179880194387</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04475866307129447</v>
+        <v>0.04616457750980511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -5245,19 +5245,19 @@
         <v>62372</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>49372</v>
+        <v>47664</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>80448</v>
+        <v>80087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03265459385242087</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0258486446295778</v>
+        <v>0.02495454399232066</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0421180577038444</v>
+        <v>0.04192941088051458</v>
       </c>
     </row>
     <row r="12">
@@ -5274,19 +5274,19 @@
         <v>847695</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>831177</v>
+        <v>832215</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>860964</v>
+        <v>861985</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9368394561356576</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9185834701775873</v>
+        <v>0.9197307607292763</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9515034435517756</v>
+        <v>0.9526311951842907</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>886</v>
@@ -5295,19 +5295,19 @@
         <v>933211</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>916261</v>
+        <v>915580</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>948821</v>
+        <v>948557</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9283796938558194</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9115175348602012</v>
+        <v>0.9108395732791854</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9439085137110428</v>
+        <v>0.9436465469214942</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1710</v>
@@ -5316,19 +5316,19 @@
         <v>1780907</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1757302</v>
+        <v>1754692</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1800201</v>
+        <v>1801310</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9323873287430764</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9200287929660429</v>
+        <v>0.9186624532147538</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.94248840983424</v>
+        <v>0.9430692343518779</v>
       </c>
     </row>
     <row r="13">
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7489</v>
+        <v>7102</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002673717526968381</v>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009712284440934497</v>
+        <v>0.009210860714481078</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7408</v>
+        <v>6649</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001292682402889982</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004644784034779393</v>
+        <v>0.004169384309985128</v>
       </c>
     </row>
     <row r="15">
@@ -5483,19 +5483,19 @@
         <v>44040</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31149</v>
+        <v>32851</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>58493</v>
+        <v>59238</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05346239851801046</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03781346812859753</v>
+        <v>0.03987930599879454</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0710072505463016</v>
+        <v>0.07191135704031443</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>37</v>
@@ -5504,19 +5504,19 @@
         <v>37586</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>26723</v>
+        <v>27016</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>50956</v>
+        <v>49785</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04874622374246976</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03465694004791528</v>
+        <v>0.03503738635482812</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06608582904995654</v>
+        <v>0.06456714744173986</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>76</v>
@@ -5525,19 +5525,19 @@
         <v>81626</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>64792</v>
+        <v>65400</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>100317</v>
+        <v>100725</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05118223388588208</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04062634657368275</v>
+        <v>0.04100786083394433</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06290193516543542</v>
+        <v>0.06315738743735123</v>
       </c>
     </row>
     <row r="16">
@@ -5554,19 +5554,19 @@
         <v>60059</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45509</v>
+        <v>45728</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76502</v>
+        <v>78219</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07290807019570063</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05524538817503603</v>
+        <v>0.0555118379150332</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09286927424736563</v>
+        <v>0.09495427711504061</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -5575,19 +5575,19 @@
         <v>40602</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29377</v>
+        <v>28399</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56100</v>
+        <v>53539</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05265764549227328</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03809900901724271</v>
+        <v>0.03683149431726614</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07275683833345535</v>
+        <v>0.06943553102348689</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>95</v>
@@ -5596,19 +5596,19 @@
         <v>100661</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>81162</v>
+        <v>84696</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>121739</v>
+        <v>124253</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06311744444667075</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05089102158440491</v>
+        <v>0.05310688186027457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07633439335548046</v>
+        <v>0.07791037386922428</v>
       </c>
     </row>
     <row r="17">
@@ -5625,19 +5625,19 @@
         <v>719660</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>700087</v>
+        <v>696081</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>739522</v>
+        <v>737872</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.873629531286289</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8498688086481303</v>
+        <v>0.8450056947802408</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8977401891752532</v>
+        <v>0.8957381362523562</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>650</v>
@@ -5646,19 +5646,19 @@
         <v>690809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>672116</v>
+        <v>672141</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>707177</v>
+        <v>707636</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8959224132382886</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.871679334739738</v>
+        <v>0.871711330362115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9171499607373103</v>
+        <v>0.9177454057344714</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1342</v>
@@ -5667,19 +5667,19 @@
         <v>1410469</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1385010</v>
+        <v>1385629</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1436538</v>
+        <v>1432207</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8844076392645572</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8684439194759062</v>
+        <v>0.8688318024821575</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9007532565798259</v>
+        <v>0.8980381493900293</v>
       </c>
     </row>
     <row r="18">
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5338</v>
+        <v>5088</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002082840829210098</v>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01053511437707813</v>
+        <v>0.01004088290205766</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5392</v>
+        <v>5453</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002211258067967585</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0110110207745591</v>
+        <v>0.0111359271079276</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7426</v>
+        <v>8123</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002145953740755863</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007453182643254624</v>
+        <v>0.008152594303061485</v>
       </c>
     </row>
     <row r="20">
@@ -5842,19 +5842,19 @@
         <v>43015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31310</v>
+        <v>31740</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58770</v>
+        <v>56718</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08489147745435088</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06179205544674198</v>
+        <v>0.06264002517408472</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1159862712509266</v>
+        <v>0.1119350278057366</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -5863,19 +5863,19 @@
         <v>52829</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40064</v>
+        <v>40555</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68262</v>
+        <v>70475</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1078813143133882</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0818145815800389</v>
+        <v>0.08281734629010545</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1393954884648436</v>
+        <v>0.1439145646684372</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>85</v>
@@ -5884,19 +5884,19 @@
         <v>95844</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>79238</v>
+        <v>77421</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>117871</v>
+        <v>117440</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09619023729512341</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07952421422918357</v>
+        <v>0.07770113826462262</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.118297425287534</v>
+        <v>0.1178646129439113</v>
       </c>
     </row>
     <row r="21">
@@ -5913,19 +5913,19 @@
         <v>52493</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>39124</v>
+        <v>39238</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>67717</v>
+        <v>67169</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.103598291215191</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07721356985048844</v>
+        <v>0.07743806017596998</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1336424183340416</v>
+        <v>0.1325616020233932</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>36</v>
@@ -5934,19 +5934,19 @@
         <v>39004</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28061</v>
+        <v>28563</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>53446</v>
+        <v>54376</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07964890992502521</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0573032406412765</v>
+        <v>0.05832780656029058</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1091404562739002</v>
+        <v>0.1110389776532431</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>82</v>
@@ -5955,19 +5955,19 @@
         <v>91497</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>74039</v>
+        <v>73272</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>114306</v>
+        <v>111287</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0918279463801296</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07430672492091807</v>
+        <v>0.07353660488320661</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1147189237220527</v>
+        <v>0.1116894258367785</v>
       </c>
     </row>
     <row r="22">
@@ -5984,19 +5984,19 @@
         <v>410138</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>388651</v>
+        <v>393622</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>427856</v>
+        <v>428029</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.809427390501248</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.767023266658923</v>
+        <v>0.7768324005764948</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8443962197671053</v>
+        <v>0.8447369592126261</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>373</v>
@@ -6005,19 +6005,19 @@
         <v>396782</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>376909</v>
+        <v>375563</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>413717</v>
+        <v>413547</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.810258517693619</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7696754935153972</v>
+        <v>0.7669286346320406</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8448405689400376</v>
+        <v>0.8444938455411292</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>757</v>
@@ -6026,19 +6026,19 @@
         <v>806919</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>779870</v>
+        <v>776020</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>829978</v>
+        <v>830855</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8098358625839911</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7826893702010322</v>
+        <v>0.7788258021900166</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8329781802155002</v>
+        <v>0.8338583436265583</v>
       </c>
     </row>
     <row r="23">
@@ -6130,19 +6130,19 @@
         <v>6767</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2265</v>
+        <v>2345</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14129</v>
+        <v>15654</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002012685976630774</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0006736191237454303</v>
+        <v>0.0006975215134314511</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.004202203763588773</v>
+        <v>0.004655602760020241</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -6151,19 +6151,19 @@
         <v>3144</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8340</v>
+        <v>9332</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0008930565671822792</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.000240474613995503</v>
+        <v>0.0002412386994219293</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.002368629237775836</v>
+        <v>0.002650386096456078</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -6172,19 +6172,19 @@
         <v>9912</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4361</v>
+        <v>4232</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18711</v>
+        <v>18860</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001439971062349731</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0006335133297683531</v>
+        <v>0.0006148447854828546</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002718353022947618</v>
+        <v>0.002739933242215398</v>
       </c>
     </row>
     <row r="25">
@@ -6201,19 +6201,19 @@
         <v>121270</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>100849</v>
+        <v>100589</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>147469</v>
+        <v>148240</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03606694729621351</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02999347578254417</v>
+        <v>0.02991615435722158</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04385877056667606</v>
+        <v>0.04408789307908381</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>138</v>
@@ -6222,19 +6222,19 @@
         <v>151896</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>128378</v>
+        <v>128410</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>176250</v>
+        <v>177788</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04314015242743408</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03646065656114689</v>
+        <v>0.03646976285400755</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05005706395441396</v>
+        <v>0.0504938128800747</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>249</v>
@@ -6243,19 +6243,19 @@
         <v>273166</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>241181</v>
+        <v>240910</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>307561</v>
+        <v>308187</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0396850463174018</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03503825885164082</v>
+        <v>0.03499897374941641</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04468177924070502</v>
+        <v>0.04477278953179603</v>
       </c>
     </row>
     <row r="26">
@@ -6272,19 +6272,19 @@
         <v>156345</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>132763</v>
+        <v>132293</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>183492</v>
+        <v>183000</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04649856201916465</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03948508947548745</v>
+        <v>0.03934531080520523</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05457214069224549</v>
+        <v>0.0544257899570972</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>113</v>
@@ -6293,19 +6293,19 @@
         <v>121185</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>100240</v>
+        <v>101189</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>143777</v>
+        <v>147963</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03441781689365463</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02846927060701409</v>
+        <v>0.02873874421843935</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04083436119401964</v>
+        <v>0.0420231460647305</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>256</v>
@@ -6314,19 +6314,19 @@
         <v>277530</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>244461</v>
+        <v>245171</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>312692</v>
+        <v>315984</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04031899684284826</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03551480348979524</v>
+        <v>0.035617891563332</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04542724593637192</v>
+        <v>0.04590545141029127</v>
       </c>
     </row>
     <row r="27">
@@ -6343,19 +6343,19 @@
         <v>3077986</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3042625</v>
+        <v>3041689</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3112076</v>
+        <v>3110491</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9154218047079911</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9049052139843573</v>
+        <v>0.9046267340833261</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9255604761401195</v>
+        <v>0.9250889821671499</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3063</v>
@@ -6364,19 +6364,19 @@
         <v>3244763</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3209980</v>
+        <v>3210888</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3277663</v>
+        <v>3276031</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.921548974111729</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9116703292722621</v>
+        <v>0.9119280026886223</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.930892876035499</v>
+        <v>0.9304294107064828</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6005</v>
@@ -6385,19 +6385,19 @@
         <v>6322749</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6274900</v>
+        <v>6270411</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6369181</v>
+        <v>6367897</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9185559857774002</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9116046237268528</v>
+        <v>0.9109525124525822</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9253015394403205</v>
+        <v>0.9251149631893087</v>
       </c>
     </row>
     <row r="28">
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7455</v>
+        <v>9141</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003653318640489491</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01494850444349407</v>
+        <v>0.01832779875277993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6750,19 +6750,19 @@
         <v>3328</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1185</v>
+        <v>792</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9053</v>
+        <v>8304</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005336215735749156</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001899874003210013</v>
+        <v>0.00127043308647181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01451771185123136</v>
+        <v>0.01331633688572125</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -6771,19 +6771,19 @@
         <v>5150</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1416</v>
+        <v>1943</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12834</v>
+        <v>13120</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004588365497759296</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001262043710382749</v>
+        <v>0.001731096200668376</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01143531907606349</v>
+        <v>0.01168980801895296</v>
       </c>
     </row>
     <row r="5">
@@ -6800,19 +6800,19 @@
         <v>13427</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7309</v>
+        <v>6829</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23592</v>
+        <v>23717</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02692243505969378</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01465473982302728</v>
+        <v>0.01369284000807985</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0473028289915357</v>
+        <v>0.04755474983740612</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -6821,19 +6821,19 @@
         <v>25317</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17531</v>
+        <v>17298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35797</v>
+        <v>35422</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04059922422763899</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02811312642370697</v>
+        <v>0.02773969490846318</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05740607916628541</v>
+        <v>0.05680386908083838</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -6842,19 +6842,19 @@
         <v>38744</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27199</v>
+        <v>29036</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51892</v>
+        <v>52662</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03452149668090104</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02423438996444021</v>
+        <v>0.02587123225926451</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0462363194899781</v>
+        <v>0.04692227066292594</v>
       </c>
     </row>
     <row r="6">
@@ -6871,19 +6871,19 @@
         <v>3320</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10722</v>
+        <v>9662</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006655789576209883</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00118658500240672</v>
+        <v>0.001193622202667194</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02149742473413744</v>
+        <v>0.01937285045399528</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -6892,19 +6892,19 @@
         <v>5867</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2115</v>
+        <v>2002</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14625</v>
+        <v>14308</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.009408015094602963</v>
+        <v>0.009408015094602965</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003392054700075282</v>
+        <v>0.003210335307287919</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02345306727717419</v>
+        <v>0.02294532663518099</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -6913,19 +6913,19 @@
         <v>9186</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4244</v>
+        <v>3898</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21159</v>
+        <v>17142</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008184973879112335</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00378118523275607</v>
+        <v>0.00347308042517377</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01885333691623807</v>
+        <v>0.01527352083712721</v>
       </c>
     </row>
     <row r="7">
@@ -6942,19 +6942,19 @@
         <v>480170</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>468039</v>
+        <v>468263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>487823</v>
+        <v>488247</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9627684567236069</v>
+        <v>0.962768456723607</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9384447284189286</v>
+        <v>0.938894335444307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9781135653865515</v>
+        <v>0.978962180398762</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>818</v>
@@ -6963,19 +6963,19 @@
         <v>589069</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>575824</v>
+        <v>577495</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>598794</v>
+        <v>598908</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9446565449420088</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9234168640424513</v>
+        <v>0.9260957908776304</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9602527716275712</v>
+        <v>0.9604345634333078</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1257</v>
@@ -6984,19 +6984,19 @@
         <v>1069240</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1053344</v>
+        <v>1054643</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1084216</v>
+        <v>1082638</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9527051639422274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9385415621315504</v>
+        <v>0.9396988568818511</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9660492038598787</v>
+        <v>0.9646428192386128</v>
       </c>
     </row>
     <row r="8">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6488</v>
+        <v>5777</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001191021058961894</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.006757315191075502</v>
+        <v>0.006017347779973027</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -7125,16 +7125,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6071</v>
+        <v>5857</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.0005508433142507972</v>
+        <v>0.0005508433142507971</v>
       </c>
       <c r="V9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.002924440609467091</v>
+        <v>0.002821485038959644</v>
       </c>
     </row>
     <row r="10">
@@ -7151,19 +7151,19 @@
         <v>36866</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26221</v>
+        <v>26727</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50458</v>
+        <v>50118</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03839658791999381</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0273100440624655</v>
+        <v>0.02783660269964584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05255300005540356</v>
+        <v>0.05219858518744127</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -7172,19 +7172,19 @@
         <v>70192</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56460</v>
+        <v>55908</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86200</v>
+        <v>86631</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06290421834358018</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05059803486743002</v>
+        <v>0.05010322635283962</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07725035751787149</v>
+        <v>0.07763709898561624</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -7193,19 +7193,19 @@
         <v>107058</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>89935</v>
+        <v>89895</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>127021</v>
+        <v>127773</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05156952004804492</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04332174465884533</v>
+        <v>0.04330230963472836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06118596252306597</v>
+        <v>0.06154804848747483</v>
       </c>
     </row>
     <row r="11">
@@ -7222,19 +7222,19 @@
         <v>13350</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5998</v>
+        <v>6561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26656</v>
+        <v>27275</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01390380658372277</v>
+        <v>0.01390380658372276</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006246587753473916</v>
+        <v>0.006832920993584007</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02776224893820115</v>
+        <v>0.02840742888377301</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -7243,19 +7243,19 @@
         <v>9715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5428</v>
+        <v>5253</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16218</v>
+        <v>16099</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008706610501763577</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00486485814506262</v>
+        <v>0.004707239885544542</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01453402151531543</v>
+        <v>0.01442714448269727</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -7264,19 +7264,19 @@
         <v>23065</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14853</v>
+        <v>14557</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35304</v>
+        <v>34315</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01111029656008813</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007154731653862187</v>
+        <v>0.007011942519855621</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01700600016065226</v>
+        <v>0.01652956279398766</v>
       </c>
     </row>
     <row r="12">
@@ -7293,19 +7293,19 @@
         <v>908778</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>891503</v>
+        <v>889102</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>921259</v>
+        <v>921321</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9465085844373216</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9285164310823762</v>
+        <v>0.9260162279931992</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9595082793752148</v>
+        <v>0.9595722080718514</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1501</v>
@@ -7314,19 +7314,19 @@
         <v>1035942</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1018990</v>
+        <v>1018383</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1050058</v>
+        <v>1050350</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9283891711546562</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9131972237098395</v>
+        <v>0.912653029961068</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9410398155888731</v>
+        <v>0.9413012246825295</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2363</v>
@@ -7335,19 +7335,19 @@
         <v>1944720</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1922486</v>
+        <v>1922709</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1964195</v>
+        <v>1965365</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9367693400776161</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9260591023088106</v>
+        <v>0.9261667447936905</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9461501867974922</v>
+        <v>0.9467139335397955</v>
       </c>
     </row>
     <row r="13">
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4857</v>
+        <v>5291</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0008589653935644508</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.004640894772044496</v>
+        <v>0.005056037199358832</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5144</v>
+        <v>5073</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001404191910153849</v>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.004910255835427048</v>
+        <v>0.004842431241811752</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -7481,19 +7481,19 @@
         <v>2370</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6303</v>
+        <v>6542</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001131729967860856</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0003380777346582838</v>
+        <v>0.000339447390479292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003009884588319296</v>
+        <v>0.003124147107955154</v>
       </c>
     </row>
     <row r="15">
@@ -7510,19 +7510,19 @@
         <v>87715</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>70210</v>
+        <v>69635</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>110881</v>
+        <v>108448</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08381927529233028</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06709155228424174</v>
+        <v>0.06654265335629991</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1059565105062193</v>
+        <v>0.1036312862247117</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>154</v>
@@ -7531,19 +7531,19 @@
         <v>110186</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>93403</v>
+        <v>93876</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>126620</v>
+        <v>128036</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1051748503529264</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08915555156709382</v>
+        <v>0.08960672305913997</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1208618528227753</v>
+        <v>0.1222137042200766</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>230</v>
@@ -7552,19 +7552,19 @@
         <v>197901</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>172134</v>
+        <v>174598</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>225481</v>
+        <v>228737</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09450298960743059</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0821986806377985</v>
+        <v>0.08337543827832296</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1076733209642456</v>
+        <v>0.1092282946236589</v>
       </c>
     </row>
     <row r="16">
@@ -7581,19 +7581,19 @@
         <v>52731</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38025</v>
+        <v>38839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71322</v>
+        <v>71457</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05038854880214772</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03633580714399149</v>
+        <v>0.03711382816617408</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06815428016490302</v>
+        <v>0.06828304615506517</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -7602,19 +7602,19 @@
         <v>37061</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28649</v>
+        <v>27700</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48387</v>
+        <v>47533</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03537573232103391</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02734616431930439</v>
+        <v>0.02643992600420901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04618658752839289</v>
+        <v>0.04537107672940733</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -7623,19 +7623,19 @@
         <v>89792</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72383</v>
+        <v>72514</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109875</v>
+        <v>111225</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04287797407427747</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03456498582347258</v>
+        <v>0.03462747395251976</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05246812600883726</v>
+        <v>0.05311278509173581</v>
       </c>
     </row>
     <row r="17">
@@ -7652,19 +7652,19 @@
         <v>905134</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>879422</v>
+        <v>878500</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>927800</v>
+        <v>927117</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8649332105119575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8403629242519013</v>
+        <v>0.8394814932586397</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8865925125102878</v>
+        <v>0.8859389988414393</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1302</v>
@@ -7673,19 +7673,19 @@
         <v>898924</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>881689</v>
+        <v>879536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>916990</v>
+        <v>917904</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8580452254158858</v>
+        <v>0.8580452254158859</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8415939298466846</v>
+        <v>0.8395388189432691</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8752892038989256</v>
+        <v>0.8761623649932609</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2204</v>
@@ -7694,19 +7694,19 @@
         <v>1804059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1770313</v>
+        <v>1766995</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1831785</v>
+        <v>1832158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8614873063504311</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8453726656453637</v>
+        <v>0.843788175575093</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8747273834628163</v>
+        <v>0.874905290934142</v>
       </c>
     </row>
     <row r="18">
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4291</v>
+        <v>5718</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001078935214183764</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.004396400927169085</v>
+        <v>0.005859476909956551</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -7819,19 +7819,19 @@
         <v>1861</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5506</v>
+        <v>5166</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002046845073627109</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.000480395982430322</v>
+        <v>0.0004882023197809833</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.006055881215635239</v>
+        <v>0.005681446618849482</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -7840,19 +7840,19 @@
         <v>2914</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>879</v>
+        <v>755</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7728</v>
+        <v>7934</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.001545780245777252</v>
+        <v>0.001545780245777251</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0004662385721880303</v>
+        <v>0.0004004504097107081</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004099195772228037</v>
+        <v>0.004208469334652645</v>
       </c>
     </row>
     <row r="20">
@@ -7869,19 +7869,19 @@
         <v>203122</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>176601</v>
+        <v>177778</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232316</v>
+        <v>233191</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.208131771911828</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1809565620874395</v>
+        <v>0.1821629329696459</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2380464314121343</v>
+        <v>0.2389423578266322</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>258</v>
@@ -7890,19 +7890,19 @@
         <v>181481</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>160763</v>
+        <v>161287</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>206219</v>
+        <v>204473</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1995880157107658</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1768030523754865</v>
+        <v>0.1773791179095008</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2267939750219348</v>
+        <v>0.2248740968382467</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>451</v>
@@ -7911,19 +7911,19 @@
         <v>384603</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>350841</v>
+        <v>352582</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>422866</v>
+        <v>422001</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.204010923162642</v>
+        <v>0.2040109231626419</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1861018203197617</v>
+        <v>0.1870256781722442</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2243075231128947</v>
+        <v>0.2238482602656466</v>
       </c>
     </row>
     <row r="21">
@@ -7940,19 +7940,19 @@
         <v>60252</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45811</v>
+        <v>46515</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>80109</v>
+        <v>78430</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.06173776150962944</v>
+        <v>0.06173776150962945</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04694101436157763</v>
+        <v>0.04766184965265253</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0820845505070527</v>
+        <v>0.0803645374581588</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>78</v>
@@ -7961,19 +7961,19 @@
         <v>50677</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>40949</v>
+        <v>39905</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>64887</v>
+        <v>63968</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0557332712322242</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0450340857756678</v>
+        <v>0.04388587370588692</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07136045593601202</v>
+        <v>0.07035011269098074</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>140</v>
@@ -7982,19 +7982,19 @@
         <v>110929</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>91480</v>
+        <v>92907</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>132261</v>
+        <v>132607</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.05884165871048019</v>
+        <v>0.05884165871048018</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04852523052798093</v>
+        <v>0.04928188167388089</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07015743710499311</v>
+        <v>0.07034090674335243</v>
       </c>
     </row>
     <row r="22">
@@ -8011,19 +8011,19 @@
         <v>711503</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>679967</v>
+        <v>679512</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>742124</v>
+        <v>739031</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7290515313643587</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6967382377411184</v>
+        <v>0.6962717309977043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7604284603040679</v>
+        <v>0.7572586582871045</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>984</v>
@@ -8032,19 +8032,19 @@
         <v>675260</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>647481</v>
+        <v>647902</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>697957</v>
+        <v>697936</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.742631867983383</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7120819075949183</v>
+        <v>0.7125443843741125</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7675937266961214</v>
+        <v>0.7675712678758096</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1675</v>
@@ -8053,19 +8053,19 @@
         <v>1386762</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1346071</v>
+        <v>1347549</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1428676</v>
+        <v>1424962</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7356016378811008</v>
+        <v>0.7356016378811006</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7140173643551998</v>
+        <v>0.7148014792329449</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7578344442073697</v>
+        <v>0.7558643762704512</v>
       </c>
     </row>
     <row r="23">
@@ -8160,16 +8160,16 @@
         <v>1151</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12526</v>
+        <v>12440</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001412539154853027</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0003306857476076319</v>
+        <v>0.0003306522106020481</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003598135021963152</v>
+        <v>0.003573339367014316</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -8178,19 +8178,19 @@
         <v>6660</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3158</v>
+        <v>3279</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13166</v>
+        <v>12966</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.001801723746644015</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0008544115339012614</v>
+        <v>0.0008870311123414209</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.003561918215745611</v>
+        <v>0.003507760019004182</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -8199,19 +8199,19 @@
         <v>11577</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6582</v>
+        <v>6259</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21480</v>
+        <v>20902</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.00161296207973025</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0009170070262268932</v>
+        <v>0.0008720018477433858</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002992646459478572</v>
+        <v>0.002912107398133736</v>
       </c>
     </row>
     <row r="25">
@@ -8228,19 +8228,19 @@
         <v>341130</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>306840</v>
+        <v>303487</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>383146</v>
+        <v>385279</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09798976499016893</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08813984822775027</v>
+        <v>0.08717686232420173</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1100588624195697</v>
+        <v>0.1106713979057602</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>537</v>
@@ -8249,19 +8249,19 @@
         <v>387175</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>356447</v>
+        <v>357731</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>424227</v>
+        <v>421608</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1047452789599983</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0964320744234141</v>
+        <v>0.09677960086864447</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1147692449262165</v>
+        <v>0.1140605833700854</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>855</v>
@@ -8270,19 +8270,19 @@
         <v>728306</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>679875</v>
+        <v>679433</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>777684</v>
+        <v>777444</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1014687307494539</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09472136814751575</v>
+        <v>0.09465977544077744</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1083482744408053</v>
+        <v>0.1083148252853026</v>
       </c>
     </row>
     <row r="26">
@@ -8299,19 +8299,19 @@
         <v>129651</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>108637</v>
+        <v>107818</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>158166</v>
+        <v>158100</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0372423776396482</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03120599942807743</v>
+        <v>0.03097084652109395</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04543322237842259</v>
+        <v>0.04541425130451152</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>156</v>
@@ -8320,19 +8320,19 @@
         <v>103320</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>87444</v>
+        <v>88405</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>122127</v>
+        <v>121673</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02795192300950632</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02365675909937645</v>
+        <v>0.02391670827455117</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03303990950613313</v>
+        <v>0.03291714432074444</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>281</v>
@@ -8341,19 +8341,19 @@
         <v>232971</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>203935</v>
+        <v>202711</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>265269</v>
+        <v>265114</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.03245796394576751</v>
+        <v>0.0324579639457675</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02841256094487483</v>
+        <v>0.02824205208599518</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0369577220181205</v>
+        <v>0.03693610182545613</v>
       </c>
     </row>
     <row r="27">
@@ -8370,19 +8370,19 @@
         <v>3005585</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2961954</v>
+        <v>2956056</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3048541</v>
+        <v>3047371</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8633553182153297</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8508221826295403</v>
+        <v>0.8491279629284637</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8756944212254185</v>
+        <v>0.8753584372124043</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4605</v>
@@ -8391,19 +8391,19 @@
         <v>3199195</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3159586</v>
+        <v>3160360</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3235178</v>
+        <v>3229646</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.8655010742838514</v>
+        <v>0.8655010742838513</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8547854100833739</v>
+        <v>0.8549946888224442</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8752357628019476</v>
+        <v>0.8737393136282222</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7499</v>
@@ -8412,19 +8412,19 @@
         <v>6204781</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6147003</v>
+        <v>6150218</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6265347</v>
+        <v>6261995</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8644603432250485</v>
+        <v>0.8644603432250483</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8564106542511079</v>
+        <v>0.8568585065556746</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8728985163125258</v>
+        <v>0.8724315747179601</v>
       </c>
     </row>
     <row r="28">
